--- a/database/sidis/expdata/2519.xlsx
+++ b/database/sidis/expdata/2519.xlsx
@@ -1,40 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\malda\Documents\Summer Research\sidisdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/physicsstudentresearch/Documents/jam3d/database/sidis/expdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EB41417-2144-4CE4-BC44-39D070D10DBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D665E93-441F-674D-A511-80BBE79DDD77}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="732" windowWidth="13170" windowHeight="11520" xr2:uid="{8ED5D0AE-01F9-438B-B382-432533D35361}"/>
+    <workbookView xWindow="740" yWindow="740" windowWidth="13180" windowHeight="11520" xr2:uid="{8ED5D0AE-01F9-438B-B382-432533D35361}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="181029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="20">
   <si>
     <t>AUTsivers</t>
   </si>
@@ -91,6 +82,9 @@
   </si>
   <si>
     <t>zmax</t>
+  </si>
+  <si>
+    <t>depol</t>
   </si>
 </sst>
 </file>
@@ -172,7 +166,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -183,6 +177,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -497,15 +494,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14130E96-76DD-4969-91BA-1CCF93E5FDDC}">
-  <dimension ref="A1:O24"/>
+  <dimension ref="A1:P24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:O11"/>
+      <selection activeCell="P2" sqref="P2:P11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -551,8 +548,11 @@
       <c r="O1" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P1" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>2.44</v>
       </c>
@@ -598,8 +598,11 @@
       <c r="O2">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2.46</v>
       </c>
@@ -645,8 +648,11 @@
       <c r="O3">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>2.4500000000000002</v>
       </c>
@@ -692,8 +698,11 @@
       <c r="O4">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>2.4500000000000002</v>
       </c>
@@ -739,8 +748,11 @@
       <c r="O5">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>2.44</v>
       </c>
@@ -786,8 +798,11 @@
       <c r="O6">
         <v>0.52</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>2.4300000000000002</v>
       </c>
@@ -833,8 +848,11 @@
       <c r="O7">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>2.41</v>
       </c>
@@ -880,8 +898,11 @@
       <c r="O8">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>2.41</v>
       </c>
@@ -927,8 +948,11 @@
       <c r="O9">
         <v>0.76</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>2.35</v>
       </c>
@@ -974,8 +998,11 @@
       <c r="O10">
         <v>0.84</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>2.31</v>
       </c>
@@ -1021,64 +1048,67 @@
       <c r="O11">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="F13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="N13" s="1"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="F14" s="3"/>
       <c r="H14" s="2"/>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="F15" s="3"/>
       <c r="H15" s="2"/>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="F16" s="3"/>
       <c r="H16" s="2"/>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="6:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F17" s="3"/>
       <c r="H17" s="2"/>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" spans="6:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F18" s="3"/>
       <c r="H18" s="2"/>
       <c r="I18" s="3"/>
     </row>
-    <row r="19" spans="6:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F19" s="3"/>
       <c r="H19" s="2"/>
       <c r="I19" s="3"/>
     </row>
-    <row r="20" spans="6:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F20" s="3"/>
       <c r="H20" s="2"/>
       <c r="I20" s="3"/>
     </row>
-    <row r="21" spans="6:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F21" s="3"/>
       <c r="H21" s="2"/>
       <c r="I21" s="3"/>
     </row>
-    <row r="22" spans="6:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F22" s="3"/>
       <c r="H22" s="2"/>
       <c r="I22" s="3"/>
     </row>
-    <row r="23" spans="6:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F23" s="3"/>
       <c r="H23" s="2"/>
       <c r="I23" s="3"/>
     </row>
-    <row r="24" spans="6:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F24" s="3"/>
       <c r="H24" s="2"/>
       <c r="I24" s="3"/>
